--- a/cosas.xlsx
+++ b/cosas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul13m\Documents\GitHub\ProyectoSoft4BackEnd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3244EBE1-D242-4AFE-A978-EE45382576BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2970" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,88 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+  <si>
+    <t>estructura</t>
+  </si>
+  <si>
+    <t>acceso</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>permisos</t>
+  </si>
+  <si>
+    <t>proyectos</t>
+  </si>
+  <si>
+    <t>equipos</t>
+  </si>
+  <si>
+    <t>miembros de equipos</t>
+  </si>
+  <si>
+    <t>tareas</t>
+  </si>
+  <si>
+    <t>subtareas</t>
+  </si>
+  <si>
+    <t>portafolio</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Apis</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Vista</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>RestablecerContrase;a</t>
+  </si>
+  <si>
+    <t>CambiarClave</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Agregar</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>Cristal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +115,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +155,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +460,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cosas.xlsx
+++ b/cosas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul13m\Documents\GitHub\ProyectoSoft4BackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3244EBE1-D242-4AFE-A978-EE45382576BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D377F26-B381-4128-A074-F536026E86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2970" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>estructura</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Cristal</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Historial de cambios</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:N8"/>
+  <dimension ref="C3:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="M4" sqref="M4:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,9 +485,11 @@
     <col min="11" max="11" width="20.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,10 +524,16 @@
         <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
@@ -544,20 +558,26 @@
       <c r="J4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -582,18 +602,24 @@
       <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -618,18 +644,24 @@
       <c r="J6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
@@ -652,18 +684,24 @@
       <c r="J7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="K7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -678,6 +716,8 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cosas.xlsx
+++ b/cosas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul13m\Documents\GitHub\ProyectoSoft4BackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D377F26-B381-4128-A074-F536026E86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D01024E-4A31-4BC6-8DB0-0F8FB6EB532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2970" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>estructura</t>
   </si>
@@ -121,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,13 +186,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +477,7 @@
   <dimension ref="C3:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:O7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,10 +524,10 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -564,13 +571,13 @@
       <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -608,14 +615,14 @@
       <c r="L5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>19</v>
+      <c r="M5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -650,15 +657,13 @@
       <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
@@ -690,13 +695,10 @@
       <c r="L7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="M7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="1"/>

--- a/cosas.xlsx
+++ b/cosas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul13m\Documents\GitHub\ProyectoSoft4BackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D01024E-4A31-4BC6-8DB0-0F8FB6EB532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9E7130-4058-49C9-980D-EEB0A1F254EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="1140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>estructura</t>
   </si>
@@ -99,13 +99,58 @@
     <t>Reportes</t>
   </si>
   <si>
-    <t>Cristal</t>
-  </si>
-  <si>
     <t>Comentarios</t>
   </si>
   <si>
     <t>Historial de cambios</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>Cambiar acceso por usuario</t>
+  </si>
+  <si>
+    <t>Vista portafolio</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>Tareas</t>
+  </si>
+  <si>
+    <t>Sub tareas</t>
+  </si>
+  <si>
+    <t>Controles</t>
+  </si>
+  <si>
+    <t>Validar datos de tablas</t>
+  </si>
+  <si>
+    <t>Vista tipo cartas</t>
+  </si>
+  <si>
+    <t>Abrir proyectos desde el portafolio</t>
+  </si>
+  <si>
+    <t>Abrir tareas desde el proyecto</t>
+  </si>
+  <si>
+    <t>Abrir sub tareas desde las tareas</t>
+  </si>
+  <si>
+    <t>validar datos de acceso</t>
+  </si>
+  <si>
+    <t>Hacer reportes de verdad</t>
+  </si>
+  <si>
+    <t>Graficos</t>
+  </si>
+  <si>
+    <t>poder descargar la data</t>
   </si>
 </sst>
 </file>
@@ -121,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +203,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -186,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -194,6 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,18 +526,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:P8"/>
+  <dimension ref="C3:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" customWidth="1"/>
@@ -531,10 +583,10 @@
         <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>23</v>
@@ -544,7 +596,7 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -581,14 +633,14 @@
         <v>18</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -630,7 +682,7 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -721,6 +773,135 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
